--- a/ig/ch-emed/StructureDefinition-ch-emed-composition-medicationcard.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-composition-medicationcard.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$155</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6050" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5791" uniqueCount="650">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T19:08:44+00:00</t>
+    <t>2024-12-17T21:35:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1588,7 +1588,7 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>
@@ -1876,61 +1876,6 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>Composition.section:originalRepresentation.entry.id</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.id</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.extension</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.extension</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.extension:narrativeLink</t>
-  </si>
-  <si>
-    <t>narrativeLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {narrativeLink}
-</t>
-  </si>
-  <si>
-    <t>narrativeLink to img src attribute</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept (resource/element), as a url that is a reference to a portion of the narrative of a resource ([DomainResource.text](http://hl7.org/fhir/R4/narrative.html) or [Composition.section.text](http://hl7.org/fhir/R4/composition-definitions.html#Composition.section.text)).</t>
-  </si>
-  <si>
-    <t>It's also possible to link to the resource narrative using the [originalText extension](StructureDefinition-originalText.html) which claims that the data is derived from the text provided or linked to.</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.reference</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.reference</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.type</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.type</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.identifier</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.identifier</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.display</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.display</t>
-  </si>
-  <si>
     <t>Composition.section:originalRepresentation.emptyReason</t>
   </si>
   <si>
@@ -2004,19 +1949,37 @@
     <t>Composition.section:card.entry.id</t>
   </si>
   <si>
+    <t>Composition.section.entry.id</t>
+  </si>
+  <si>
     <t>Composition.section:card.entry.extension</t>
   </si>
   <si>
+    <t>Composition.section.entry.extension</t>
+  </si>
+  <si>
     <t>Composition.section:card.entry.reference</t>
   </si>
   <si>
+    <t>Composition.section.entry.reference</t>
+  </si>
+  <si>
     <t>Composition.section:card.entry.type</t>
   </si>
   <si>
+    <t>Composition.section.entry.type</t>
+  </si>
+  <si>
     <t>Composition.section:card.entry.identifier</t>
   </si>
   <si>
+    <t>Composition.section.entry.identifier</t>
+  </si>
+  <si>
     <t>Composition.section:card.entry.display</t>
+  </si>
+  <si>
+    <t>Composition.section.entry.display</t>
   </si>
   <si>
     <t>Composition.section:card.emptyReason</t>
@@ -2412,7 +2375,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO162"/>
+  <dimension ref="A1:AO155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2421,7 +2384,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.90625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.39453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.94140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -16403,7 +16366,7 @@
         <v>597</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>598</v>
+        <v>564</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16426,16 +16389,20 @@
         <v>80</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>172</v>
+        <v>565</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>80</v>
       </c>
@@ -16459,13 +16426,13 @@
         <v>80</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>80</v>
@@ -16483,7 +16450,7 @@
         <v>80</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>174</v>
+        <v>564</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16492,19 +16459,19 @@
         <v>92</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL120" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM120" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>80</v>
@@ -16515,21 +16482,21 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>80</v>
@@ -16541,16 +16508,16 @@
         <v>80</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>177</v>
+        <v>573</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>178</v>
+        <v>574</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>157</v>
+        <v>575</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -16588,19 +16555,19 @@
         <v>80</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC121" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AD121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>180</v>
+        <v>572</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -16609,19 +16576,19 @@
         <v>82</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>80</v>
+        <v>539</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>175</v>
+        <v>508</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>80</v>
+        <v>576</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>80</v>
@@ -16632,26 +16599,26 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B122" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C122" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="C122" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="D122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>80</v>
@@ -16660,17 +16627,15 @@
         <v>80</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>603</v>
+        <v>372</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>80</v>
@@ -16719,7 +16684,7 @@
         <v>80</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>180</v>
+        <v>502</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -16731,16 +16696,16 @@
         <v>80</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>143</v>
+        <v>507</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>80</v>
+        <v>509</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>80</v>
@@ -16751,10 +16716,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>608</v>
+        <v>510</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16774,20 +16739,18 @@
         <v>80</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>80</v>
@@ -16836,7 +16799,7 @@
         <v>80</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -16845,16 +16808,16 @@
         <v>92</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>80</v>
@@ -16868,21 +16831,21 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>610</v>
+        <v>511</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>80</v>
@@ -16891,19 +16854,19 @@
         <v>80</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>287</v>
+        <v>157</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -16929,13 +16892,13 @@
         <v>80</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>80</v>
@@ -16953,25 +16916,25 @@
         <v>80</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>80</v>
@@ -16985,44 +16948,46 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>612</v>
+        <v>512</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J125" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>292</v>
+        <v>385</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O125" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P125" t="s" s="2">
         <v>80</v>
       </c>
@@ -17070,25 +17035,25 @@
         <v>80</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>295</v>
+        <v>387</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>80</v>
@@ -17102,18 +17067,18 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>614</v>
+        <v>513</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>80</v>
+        <v>514</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>92</v>
@@ -17125,21 +17090,23 @@
         <v>80</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K126" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>298</v>
+        <v>606</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>299</v>
+        <v>516</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O126" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="P126" t="s" s="2">
         <v>80</v>
       </c>
@@ -17187,7 +17154,7 @@
         <v>80</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>301</v>
+        <v>513</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>81</v>
@@ -17205,10 +17172,10 @@
         <v>80</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>135</v>
+        <v>348</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>80</v>
@@ -17219,10 +17186,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>564</v>
+        <v>519</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17230,7 +17197,7 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>92</v>
@@ -17248,16 +17215,16 @@
         <v>192</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>565</v>
+        <v>520</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>566</v>
+        <v>521</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>567</v>
+        <v>522</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>568</v>
+        <v>523</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>80</v>
@@ -17267,7 +17234,7 @@
         <v>80</v>
       </c>
       <c r="S127" t="s" s="2">
-        <v>80</v>
+        <v>608</v>
       </c>
       <c r="T127" t="s" s="2">
         <v>80</v>
@@ -17282,13 +17249,13 @@
         <v>80</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>569</v>
+        <v>524</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>80</v>
@@ -17306,7 +17273,7 @@
         <v>80</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>564</v>
+        <v>519</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>81</v>
@@ -17315,7 +17282,7 @@
         <v>92</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>561</v>
+        <v>80</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>104</v>
@@ -17324,10 +17291,10 @@
         <v>80</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>571</v>
+        <v>251</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>80</v>
@@ -17338,10 +17305,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>572</v>
+        <v>526</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17352,7 +17319,7 @@
         <v>81</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>80</v>
@@ -17364,18 +17331,18 @@
         <v>80</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>80</v>
+        <v>527</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O128" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>80</v>
       </c>
@@ -17423,7 +17390,7 @@
         <v>80</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>572</v>
+        <v>526</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>81</v>
@@ -17432,7 +17399,7 @@
         <v>82</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>539</v>
+        <v>80</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>104</v>
@@ -17441,40 +17408,38 @@
         <v>80</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>508</v>
+        <v>329</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>576</v>
+        <v>330</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C129" t="s" s="2">
-        <v>618</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>80</v>
@@ -17483,15 +17448,17 @@
         <v>80</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>372</v>
+        <v>498</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>619</v>
+        <v>531</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N129" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>80</v>
@@ -17540,28 +17507,28 @@
         <v>80</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>507</v>
+        <v>104</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>508</v>
+        <v>80</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>80</v>
@@ -17572,10 +17539,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17598,15 +17565,17 @@
         <v>80</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>172</v>
+        <v>612</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>80</v>
@@ -17655,7 +17624,7 @@
         <v>80</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>174</v>
+        <v>535</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>81</v>
@@ -17664,19 +17633,19 @@
         <v>92</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>80</v>
+        <v>539</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>175</v>
+        <v>540</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>80</v>
@@ -17687,21 +17656,21 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>80</v>
@@ -17713,18 +17682,20 @@
         <v>80</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>177</v>
+        <v>542</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>178</v>
+        <v>543</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="P131" t="s" s="2">
         <v>80</v>
       </c>
@@ -17748,13 +17719,13 @@
         <v>80</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>80</v>
+        <v>546</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>80</v>
+        <v>547</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>80</v>
@@ -17772,77 +17743,77 @@
         <v>80</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>180</v>
+        <v>541</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL131" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM131" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AM131" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AN131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>385</v>
+        <v>550</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>386</v>
+        <v>551</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>157</v>
+        <v>552</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>158</v>
+        <v>553</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>80</v>
@@ -17867,13 +17838,13 @@
         <v>80</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>80</v>
+        <v>555</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>80</v>
@@ -17891,28 +17862,28 @@
         <v>80</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>387</v>
+        <v>549</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>135</v>
+        <v>556</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>80</v>
@@ -17923,24 +17894,24 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>514</v>
+        <v>80</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I133" t="s" s="2">
         <v>80</v>
@@ -17949,20 +17920,18 @@
         <v>80</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>171</v>
+        <v>616</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>80</v>
       </c>
@@ -18010,16 +17979,16 @@
         <v>80</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>104</v>
@@ -18028,10 +17997,10 @@
         <v>80</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>348</v>
+        <v>562</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>349</v>
+        <v>563</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>80</v>
@@ -18042,10 +18011,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>519</v>
+        <v>619</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18053,7 +18022,7 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>92</v>
@@ -18068,20 +18037,16 @@
         <v>80</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>520</v>
+        <v>172</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
         <v>80</v>
       </c>
@@ -18090,7 +18055,7 @@
         <v>80</v>
       </c>
       <c r="S134" t="s" s="2">
-        <v>626</v>
+        <v>80</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>80</v>
@@ -18105,13 +18070,13 @@
         <v>80</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>525</v>
+        <v>80</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>80</v>
@@ -18129,7 +18094,7 @@
         <v>80</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>519</v>
+        <v>174</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>81</v>
@@ -18141,16 +18106,16 @@
         <v>80</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>80</v>
@@ -18161,14 +18126,14 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>526</v>
+        <v>621</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
@@ -18187,18 +18152,18 @@
         <v>80</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>527</v>
+        <v>137</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>528</v>
+        <v>177</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>80</v>
       </c>
@@ -18234,19 +18199,19 @@
         <v>80</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC135" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="AD135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>526</v>
+        <v>180</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>81</v>
@@ -18258,30 +18223,30 @@
         <v>80</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>329</v>
+        <v>175</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>530</v>
+        <v>623</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18289,7 +18254,7 @@
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>92</v>
@@ -18301,19 +18266,19 @@
         <v>80</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>498</v>
+        <v>171</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>531</v>
+        <v>279</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>532</v>
+        <v>280</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>533</v>
+        <v>281</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
@@ -18363,7 +18328,7 @@
         <v>80</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>530</v>
+        <v>282</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>81</v>
@@ -18372,7 +18337,7 @@
         <v>92</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>104</v>
@@ -18381,10 +18346,10 @@
         <v>80</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>534</v>
+        <v>80</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>80</v>
@@ -18395,10 +18360,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>535</v>
+        <v>625</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18418,19 +18383,19 @@
         <v>80</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>630</v>
+        <v>285</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>537</v>
+        <v>286</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>538</v>
+        <v>287</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -18456,13 +18421,13 @@
         <v>80</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>80</v>
@@ -18480,7 +18445,7 @@
         <v>80</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>535</v>
+        <v>290</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>81</v>
@@ -18489,7 +18454,7 @@
         <v>92</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>539</v>
+        <v>80</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>104</v>
@@ -18498,10 +18463,10 @@
         <v>80</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>540</v>
+        <v>135</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>540</v>
+        <v>80</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>80</v>
@@ -18512,10 +18477,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>541</v>
+        <v>627</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18535,23 +18500,21 @@
         <v>80</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>542</v>
+        <v>292</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>543</v>
+        <v>293</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
         <v>80</v>
       </c>
@@ -18575,13 +18538,13 @@
         <v>80</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>546</v>
+        <v>80</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>547</v>
+        <v>80</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>80</v>
@@ -18599,7 +18562,7 @@
         <v>80</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>541</v>
+        <v>295</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>81</v>
@@ -18617,24 +18580,24 @@
         <v>80</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>548</v>
+        <v>296</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>549</v>
+        <v>629</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18654,23 +18617,21 @@
         <v>80</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>550</v>
+        <v>298</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>551</v>
+        <v>299</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
         <v>80</v>
       </c>
@@ -18694,13 +18655,13 @@
         <v>80</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>554</v>
+        <v>80</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>555</v>
+        <v>80</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>80</v>
@@ -18718,7 +18679,7 @@
         <v>80</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>549</v>
+        <v>301</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>81</v>
@@ -18736,10 +18697,10 @@
         <v>80</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>556</v>
+        <v>135</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>80</v>
@@ -18750,10 +18711,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18764,10 +18725,10 @@
         <v>81</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I140" t="s" s="2">
         <v>80</v>
@@ -18776,18 +18737,20 @@
         <v>80</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>634</v>
+        <v>192</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>635</v>
+        <v>565</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O140" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="P140" t="s" s="2">
         <v>80</v>
       </c>
@@ -18811,13 +18774,13 @@
         <v>80</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>80</v>
@@ -18835,13 +18798,13 @@
         <v>80</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>561</v>
@@ -18853,10 +18816,10 @@
         <v>80</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>563</v>
+        <v>175</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>80</v>
@@ -18867,10 +18830,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18881,7 +18844,7 @@
         <v>81</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>80</v>
@@ -18893,15 +18856,17 @@
         <v>80</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>172</v>
+        <v>573</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N141" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>575</v>
+      </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
         <v>80</v>
@@ -18950,28 +18915,28 @@
         <v>80</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>174</v>
+        <v>572</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>80</v>
+        <v>539</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>175</v>
+        <v>508</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>80</v>
+        <v>576</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>80</v>
@@ -18982,24 +18947,26 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="C142" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="C142" t="s" s="2">
+        <v>633</v>
+      </c>
       <c r="D142" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>80</v>
@@ -19008,17 +18975,15 @@
         <v>80</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>137</v>
+        <v>372</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>177</v>
+        <v>634</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N142" s="2"/>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
         <v>80</v>
@@ -19055,19 +19020,19 @@
         <v>80</v>
       </c>
       <c r="AB142" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC142" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AD142" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>180</v>
+        <v>502</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>81</v>
@@ -19079,16 +19044,16 @@
         <v>80</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>143</v>
+        <v>507</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>175</v>
+        <v>508</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>80</v>
+        <v>509</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>80</v>
@@ -19099,10 +19064,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>608</v>
+        <v>510</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19110,7 +19075,7 @@
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>92</v>
@@ -19122,20 +19087,18 @@
         <v>80</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N143" s="2"/>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
         <v>80</v>
@@ -19184,7 +19147,7 @@
         <v>80</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>81</v>
@@ -19193,16 +19156,16 @@
         <v>92</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>80</v>
@@ -19216,21 +19179,21 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>610</v>
+        <v>511</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>80</v>
@@ -19239,19 +19202,19 @@
         <v>80</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>287</v>
+        <v>157</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19277,13 +19240,13 @@
         <v>80</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>80</v>
@@ -19301,25 +19264,25 @@
         <v>80</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>80</v>
@@ -19333,44 +19296,46 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>612</v>
+        <v>512</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J145" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>292</v>
+        <v>385</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O145" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P145" t="s" s="2">
         <v>80</v>
       </c>
@@ -19418,25 +19383,25 @@
         <v>80</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>295</v>
+        <v>387</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>80</v>
@@ -19450,18 +19415,18 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>614</v>
+        <v>513</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>80</v>
+        <v>514</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>92</v>
@@ -19473,21 +19438,23 @@
         <v>80</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>298</v>
+        <v>639</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>299</v>
+        <v>516</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O146" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="P146" t="s" s="2">
         <v>80</v>
       </c>
@@ -19535,7 +19502,7 @@
         <v>80</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>301</v>
+        <v>513</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>81</v>
@@ -19553,10 +19520,10 @@
         <v>80</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>135</v>
+        <v>348</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>80</v>
@@ -19567,10 +19534,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>564</v>
+        <v>519</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19578,7 +19545,7 @@
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>92</v>
@@ -19596,16 +19563,16 @@
         <v>192</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>565</v>
+        <v>520</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>566</v>
+        <v>521</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>567</v>
+        <v>522</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>568</v>
+        <v>523</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>80</v>
@@ -19615,7 +19582,7 @@
         <v>80</v>
       </c>
       <c r="S147" t="s" s="2">
-        <v>80</v>
+        <v>641</v>
       </c>
       <c r="T147" t="s" s="2">
         <v>80</v>
@@ -19630,13 +19597,13 @@
         <v>80</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>569</v>
+        <v>524</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>80</v>
@@ -19654,7 +19621,7 @@
         <v>80</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>564</v>
+        <v>519</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>81</v>
@@ -19663,7 +19630,7 @@
         <v>92</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>561</v>
+        <v>80</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>104</v>
@@ -19672,10 +19639,10 @@
         <v>80</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>571</v>
+        <v>251</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>80</v>
@@ -19686,10 +19653,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>572</v>
+        <v>526</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19700,7 +19667,7 @@
         <v>81</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>80</v>
@@ -19712,18 +19679,18 @@
         <v>80</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>80</v>
+        <v>527</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O148" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="N148" s="2"/>
+      <c r="O148" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P148" t="s" s="2">
         <v>80</v>
       </c>
@@ -19771,7 +19738,7 @@
         <v>80</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>572</v>
+        <v>526</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>81</v>
@@ -19780,7 +19747,7 @@
         <v>82</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>539</v>
+        <v>80</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>104</v>
@@ -19789,28 +19756,26 @@
         <v>80</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>508</v>
+        <v>329</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>576</v>
+        <v>330</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO148" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C149" t="s" s="2">
-        <v>645</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
         <v>80</v>
       </c>
@@ -19822,7 +19787,7 @@
         <v>92</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>80</v>
@@ -19831,15 +19796,17 @@
         <v>80</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>372</v>
+        <v>498</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>646</v>
+        <v>531</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N149" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
         <v>80</v>
@@ -19888,28 +19855,28 @@
         <v>80</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI149" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>507</v>
+        <v>104</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>508</v>
+        <v>80</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>80</v>
@@ -19920,10 +19887,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19931,13 +19898,13 @@
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>80</v>
@@ -19946,15 +19913,17 @@
         <v>80</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>172</v>
+        <v>612</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N150" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
         <v>80</v>
@@ -20003,7 +19972,7 @@
         <v>80</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>174</v>
+        <v>535</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>81</v>
@@ -20012,19 +19981,19 @@
         <v>92</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>80</v>
+        <v>539</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>175</v>
+        <v>540</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>80</v>
@@ -20035,21 +20004,21 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>80</v>
@@ -20061,18 +20030,20 @@
         <v>80</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>177</v>
+        <v>542</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>178</v>
+        <v>543</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O151" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="P151" t="s" s="2">
         <v>80</v>
       </c>
@@ -20096,13 +20067,13 @@
         <v>80</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>80</v>
+        <v>546</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>80</v>
+        <v>547</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>80</v>
@@ -20120,77 +20091,77 @@
         <v>80</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>180</v>
+        <v>541</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL151" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM151" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AM151" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AN151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>385</v>
+        <v>550</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>386</v>
+        <v>551</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>157</v>
+        <v>552</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>158</v>
+        <v>553</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>80</v>
@@ -20215,13 +20186,13 @@
         <v>80</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>80</v>
+        <v>555</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>80</v>
@@ -20239,28 +20210,28 @@
         <v>80</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>387</v>
+        <v>549</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>135</v>
+        <v>556</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>80</v>
@@ -20271,21 +20242,21 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>514</v>
+        <v>80</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>80</v>
@@ -20297,20 +20268,18 @@
         <v>80</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>171</v>
+        <v>498</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>651</v>
+        <v>558</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
         <v>80</v>
       </c>
@@ -20358,16 +20327,16 @@
         <v>80</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>104</v>
@@ -20376,10 +20345,10 @@
         <v>80</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>348</v>
+        <v>562</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>349</v>
+        <v>563</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>80</v>
@@ -20390,10 +20359,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>519</v>
+        <v>564</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20401,7 +20370,7 @@
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>92</v>
@@ -20419,16 +20388,16 @@
         <v>192</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>520</v>
+        <v>565</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>521</v>
+        <v>566</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>522</v>
+        <v>567</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>80</v>
@@ -20438,7 +20407,7 @@
         <v>80</v>
       </c>
       <c r="S154" t="s" s="2">
-        <v>653</v>
+        <v>80</v>
       </c>
       <c r="T154" t="s" s="2">
         <v>80</v>
@@ -20453,13 +20422,13 @@
         <v>80</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>260</v>
+        <v>116</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>524</v>
+        <v>569</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="AA154" t="s" s="2">
         <v>80</v>
@@ -20477,7 +20446,7 @@
         <v>80</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>519</v>
+        <v>564</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>81</v>
@@ -20486,7 +20455,7 @@
         <v>92</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>104</v>
@@ -20495,10 +20464,10 @@
         <v>80</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>251</v>
+        <v>571</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>80</v>
@@ -20509,10 +20478,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>526</v>
+        <v>572</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20523,7 +20492,7 @@
         <v>81</v>
       </c>
       <c r="G155" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H155" t="s" s="2">
         <v>80</v>
@@ -20535,18 +20504,18 @@
         <v>80</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>527</v>
+        <v>80</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N155" s="2"/>
-      <c r="O155" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
         <v>80</v>
       </c>
@@ -20594,7 +20563,7 @@
         <v>80</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>526</v>
+        <v>572</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>81</v>
@@ -20603,7 +20572,7 @@
         <v>82</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>80</v>
+        <v>539</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>104</v>
@@ -20612,845 +20581,20 @@
         <v>80</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>329</v>
+        <v>508</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>330</v>
+        <v>576</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="156" hidden="true">
-      <c r="A156" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="C156" s="2"/>
-      <c r="D156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E156" s="2"/>
-      <c r="F156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G156" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O156" s="2"/>
-      <c r="P156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q156" s="2"/>
-      <c r="R156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM156" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AN156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO156" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="157" hidden="true">
-      <c r="A157" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="C157" s="2"/>
-      <c r="D157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E157" s="2"/>
-      <c r="F157" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G157" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H157" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K157" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="O157" s="2"/>
-      <c r="P157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q157" s="2"/>
-      <c r="R157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI157" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AJ157" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AN157" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO157" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="158" hidden="true">
-      <c r="A158" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="B158" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E158" s="2"/>
-      <c r="F158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G158" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="P158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q158" s="2"/>
-      <c r="R158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO158" t="s" s="2">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="159" hidden="true">
-      <c r="A159" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="C159" s="2"/>
-      <c r="D159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E159" s="2"/>
-      <c r="F159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G159" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="P159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q159" s="2"/>
-      <c r="R159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO159" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="160" hidden="true">
-      <c r="A160" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C160" s="2"/>
-      <c r="D160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E160" s="2"/>
-      <c r="F160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O160" s="2"/>
-      <c r="P160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q160" s="2"/>
-      <c r="R160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL160" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AN160" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO160" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="161" hidden="true">
-      <c r="A161" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C161" s="2"/>
-      <c r="D161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E161" s="2"/>
-      <c r="F161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="P161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q161" s="2"/>
-      <c r="R161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF161" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL161" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN161" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO161" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="162" hidden="true">
-      <c r="A162" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="B162" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C162" s="2"/>
-      <c r="D162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E162" s="2"/>
-      <c r="F162" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O162" s="2"/>
-      <c r="P162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q162" s="2"/>
-      <c r="R162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF162" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AG162" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI162" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL162" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AM162" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AN162" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO162" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO162">
+  <autoFilter ref="A1:AO155">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -21460,7 +20604,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI161">
+  <conditionalFormatting sqref="A2:AI154">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-emed/StructureDefinition-ch-emed-composition-medicationcard.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-composition-medicationcard.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5791" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5791" uniqueCount="649">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:35:32+00:00</t>
+    <t>2025-05-22T07:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1029,7 +1029,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -1274,7 +1274,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1347,7 +1347,7 @@
     <t>Composition.attester:legalAuthenticator.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr)
 </t>
   </si>
   <si>
@@ -1655,7 +1655,7 @@
     <t>Composition.section.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization-epr)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization-epr)
 </t>
   </si>
   <si>
@@ -1845,10 +1845,6 @@
   </si>
   <si>
     <t>Composition.section:originalRepresentation.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
-</t>
   </si>
   <si>
     <t>Composition.section:originalRepresentation.focus</t>
@@ -2384,15 +2380,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.94140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2403,27 +2399,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -15683,7 +15679,7 @@
         <v>80</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>588</v>
+        <v>527</v>
       </c>
       <c r="L114" t="s" s="2">
         <v>528</v>
@@ -15774,7 +15770,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>530</v>
@@ -15891,7 +15887,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>535</v>
@@ -15920,7 +15916,7 @@
         <v>122</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>537</v>
@@ -16008,7 +16004,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>541</v>
@@ -16127,7 +16123,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>549</v>
@@ -16246,7 +16242,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>557</v>
@@ -16272,10 +16268,10 @@
         <v>80</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>559</v>
@@ -16363,7 +16359,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>564</v>
@@ -16482,7 +16478,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>572</v>
@@ -16599,13 +16595,13 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>502</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D122" t="s" s="2">
         <v>80</v>
@@ -16630,7 +16626,7 @@
         <v>372</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>505</v>
@@ -16716,7 +16712,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>510</v>
@@ -16831,7 +16827,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>511</v>
@@ -16948,7 +16944,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>512</v>
@@ -17067,7 +17063,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>513</v>
@@ -17096,7 +17092,7 @@
         <v>171</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M126" t="s" s="2">
         <v>516</v>
@@ -17186,7 +17182,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>519</v>
@@ -17234,7 +17230,7 @@
         <v>80</v>
       </c>
       <c r="S127" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T127" t="s" s="2">
         <v>80</v>
@@ -17305,7 +17301,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>526</v>
@@ -17422,7 +17418,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>530</v>
@@ -17539,7 +17535,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>535</v>
@@ -17568,7 +17564,7 @@
         <v>122</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M130" t="s" s="2">
         <v>537</v>
@@ -17656,7 +17652,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>541</v>
@@ -17775,7 +17771,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>549</v>
@@ -17894,7 +17890,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>557</v>
@@ -17920,10 +17916,10 @@
         <v>80</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="M133" t="s" s="2">
         <v>559</v>
@@ -18011,10 +18007,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B134" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18126,10 +18122,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B135" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18243,10 +18239,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="B136" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18360,10 +18356,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B137" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18477,10 +18473,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B138" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18594,10 +18590,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B139" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18711,7 +18707,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>564</v>
@@ -18830,7 +18826,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>572</v>
@@ -18947,13 +18943,13 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>502</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D142" t="s" s="2">
         <v>80</v>
@@ -18978,7 +18974,7 @@
         <v>372</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>505</v>
@@ -19064,7 +19060,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>510</v>
@@ -19179,7 +19175,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>511</v>
@@ -19296,7 +19292,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>512</v>
@@ -19415,7 +19411,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>513</v>
@@ -19444,7 +19440,7 @@
         <v>171</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M146" t="s" s="2">
         <v>516</v>
@@ -19534,7 +19530,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>519</v>
@@ -19582,7 +19578,7 @@
         <v>80</v>
       </c>
       <c r="S147" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="T147" t="s" s="2">
         <v>80</v>
@@ -19653,7 +19649,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>526</v>
@@ -19770,7 +19766,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>530</v>
@@ -19887,7 +19883,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>535</v>
@@ -19916,7 +19912,7 @@
         <v>122</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M150" t="s" s="2">
         <v>537</v>
@@ -20004,7 +20000,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>541</v>
@@ -20123,7 +20119,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>549</v>
@@ -20242,7 +20238,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>557</v>
@@ -20359,7 +20355,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>564</v>
@@ -20478,7 +20474,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>572</v>
